--- a/2) Декабрь/914/914 Разработка моб приложений_декабрь.xlsx
+++ b/2) Декабрь/914/914 Разработка моб приложений_декабрь.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyao\OneDrive\Рабочий стол\Журналы\2) Декабрь\914\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6F0923-DCE7-4542-8ED7-B5CDA54FEEFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B4F2CF-7BD0-4F04-AA56-2AA6CC52F5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="6615" windowWidth="17685" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="42">
   <si>
     <t>ФИО</t>
   </si>
@@ -127,6 +127,30 @@
   </si>
   <si>
     <t>Сам 2</t>
+  </si>
+  <si>
+    <t>Лекция 1.3</t>
+  </si>
+  <si>
+    <t>Лекция 1.4</t>
+  </si>
+  <si>
+    <t>Лекция 2.1</t>
+  </si>
+  <si>
+    <t>Лекция 2.2</t>
+  </si>
+  <si>
+    <t>Лекция 2.3</t>
+  </si>
+  <si>
+    <t>Практика 2.6</t>
+  </si>
+  <si>
+    <t>Практика 2.7</t>
+  </si>
+  <si>
+    <t>Практика 2.8</t>
   </si>
 </sst>
 </file>
@@ -254,7 +278,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -548,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +595,12 @@
     <col min="15" max="15" width="17" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
     <col min="17" max="17" width="16.42578125" customWidth="1"/>
-    <col min="18" max="25" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" customWidth="1"/>
+    <col min="24" max="24" width="15.42578125" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1468,6 +1497,78 @@
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" t="s">
+        <v>37</v>
+      </c>
+      <c r="P26" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>40</v>
+      </c>
+      <c r="R26" t="s">
+        <v>37</v>
+      </c>
+      <c r="S26" t="s">
+        <v>37</v>
+      </c>
+      <c r="T26" t="s">
+        <v>38</v>
+      </c>
+      <c r="U26" t="s">
+        <v>41</v>
+      </c>
+      <c r="V26" t="s">
+        <v>41</v>
+      </c>
+      <c r="W26" t="s">
+        <v>41</v>
+      </c>
+      <c r="X26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
